--- a/GBDS FEBRUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
@@ -5,24 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B47C95-A65F-4DC6-8048-CE11D9F176DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B1EDB9-6587-4F48-ACA8-B29B6527BCE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D34C963E-9680-4B45-A4EE-B681FF0CEC08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D34C963E-9680-4B45-A4EE-B681FF0CEC08}"/>
   </bookViews>
   <sheets>
     <sheet name="COUNT SHEET" sheetId="9" r:id="rId1"/>
-    <sheet name="COUNT SHEET VERT" sheetId="10" r:id="rId2"/>
-    <sheet name="01,08" sheetId="11" r:id="rId3"/>
-    <sheet name="01,09" sheetId="12" r:id="rId4"/>
+    <sheet name="COUNT SHEET SAMPLE" sheetId="10" r:id="rId2"/>
+    <sheet name="02-03-2026" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'01,08'!$A$1:$V$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'01,09'!$A$1:$V$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'02-03-2026'!$A$1:$V$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COUNT SHEET'!$A$1:$AM$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'COUNT SHEET VERT'!$A$1:$Q$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'COUNT SHEET SAMPLE'!$A$1:$Q$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="78">
   <si>
     <t>ROUTE 1</t>
   </si>
@@ -265,10 +263,16 @@
     <t>bot</t>
   </si>
   <si>
-    <t>DATE: 08/01/2026</t>
-  </si>
-  <si>
-    <t>DATE: 09/01/2026</t>
+    <t>PP500C</t>
+  </si>
+  <si>
+    <t>SL500C</t>
+  </si>
+  <si>
+    <t>MGYZ</t>
+  </si>
+  <si>
+    <t>DATE: 02/03/2026</t>
   </si>
 </sst>
 </file>
@@ -3209,10 +3213,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AV74"/>
+  <dimension ref="A1:AV80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3472,7 +3476,7 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
-        <f t="shared" ref="A9:A50" si="0">A8+1</f>
+        <f t="shared" ref="A9:A56" si="0">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="73" t="s">
@@ -4148,13 +4152,13 @@
       <c r="AU23" s="60"/>
       <c r="AV23" s="60"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="75">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -4163,10 +4167,22 @@
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="46"/>
+      <c r="J24" s="57"/>
       <c r="K24" s="52"/>
       <c r="L24" s="47"/>
       <c r="M24" s="46"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="50"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
       <c r="Z24" s="60"/>
       <c r="AA24" s="60"/>
       <c r="AB24" s="60"/>
@@ -4197,7 +4213,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -4210,18 +4226,37 @@
       <c r="L25" s="47"/>
       <c r="M25" s="46"/>
       <c r="O25" s="50"/>
-      <c r="AS25" s="62" t="e">
-        <f>#REF!-AS24</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="60"/>
+      <c r="AR25" s="60"/>
+      <c r="AS25" s="60"/>
+      <c r="AT25" s="60"/>
+      <c r="AU25" s="60"/>
+      <c r="AV25" s="60"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -4230,22 +4265,14 @@
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="57"/>
       <c r="K26" s="52"/>
       <c r="L26" s="47"/>
       <c r="M26" s="46"/>
-      <c r="N26" s="57"/>
       <c r="O26" s="50"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
+      <c r="AS26" s="62" t="e">
+        <f>#REF!-AS25</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="27" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="75">
@@ -4253,7 +4280,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -4279,13 +4306,13 @@
       <c r="X27" s="57"/>
       <c r="Y27" s="57"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="75">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -4294,10 +4321,22 @@
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
       <c r="I28" s="46"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="52"/>
       <c r="L28" s="47"/>
       <c r="M28" s="46"/>
+      <c r="N28" s="57"/>
       <c r="O28" s="50"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="75">
@@ -4305,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -4325,7 +4364,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -4345,7 +4384,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -4365,7 +4404,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -4385,7 +4424,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -4399,13 +4438,13 @@
       <c r="M33" s="46"/>
       <c r="O33" s="50"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="75">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -4419,12 +4458,13 @@
       <c r="M34" s="46"/>
       <c r="O34" s="50"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="75">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -4438,159 +4478,161 @@
       <c r="M35" s="46"/>
       <c r="O35" s="50"/>
     </row>
-    <row r="36" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="75">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="46"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="46"/>
+      <c r="O36" s="50"/>
+    </row>
+    <row r="37" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="75">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="104"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="75">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="73" t="s">
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="104"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="75">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="46"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="46"/>
-      <c r="O37" s="50"/>
-    </row>
-    <row r="38" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="104"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="46"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="46"/>
+      <c r="O38" s="50"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="75">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="104"/>
+    </row>
+    <row r="40" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="75">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="107"/>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="73" t="s">
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="107"/>
+    </row>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="75">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="46"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="46"/>
-      <c r="O40" s="50"/>
-    </row>
-    <row r="41" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75">
-        <v>36</v>
-      </c>
-      <c r="B41" s="94" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="46"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="46"/>
+      <c r="O41" s="50"/>
+    </row>
+    <row r="42" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="75">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="102"/>
-      <c r="O41" s="104"/>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B42" s="73" t="s">
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="104"/>
+    </row>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="75">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="73" t="s">
         <v>33</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="46"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="46"/>
-      <c r="O42" s="50"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="75">
-        <v>37</v>
-      </c>
-      <c r="B43" s="74" t="s">
-        <v>25</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -4607,10 +4649,10 @@
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="75">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -4627,10 +4669,10 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="75">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -4647,10 +4689,10 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="75">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -4667,10 +4709,10 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="75">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -4687,10 +4729,10 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="75">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47"/>
@@ -4707,10 +4749,10 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="75">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
@@ -4727,10 +4769,10 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="75">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47"/>
@@ -4744,263 +4786,377 @@
       <c r="M50" s="46"/>
       <c r="O50" s="50"/>
     </row>
-    <row r="51" spans="1:15" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="77" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="75">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="46"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="46"/>
+      <c r="O51" s="50"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="75">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="46"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="46"/>
+      <c r="O52" s="50"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="75">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="46"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="46"/>
+      <c r="O53" s="50"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="75">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="74"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="46"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="46"/>
+      <c r="O54" s="50"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="75">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="74"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="46"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="46"/>
+      <c r="O55" s="50"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="75">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="74"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="46"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="46"/>
+      <c r="O56" s="50"/>
+    </row>
+    <row r="57" spans="1:15" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="54"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="51"/>
-    </row>
-    <row r="52" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="78" t="s">
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="54"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="51"/>
+    </row>
+    <row r="58" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="130" t="s">
+      <c r="C59" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="132"/>
-      <c r="O53" s="72" t="s">
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="132"/>
+      <c r="O59" s="72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="79" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="68"/>
-      <c r="O54" s="55"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="80" t="s">
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="68"/>
+      <c r="O60" s="55"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="69"/>
-      <c r="O55" s="50"/>
-    </row>
-    <row r="56" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="81" t="s">
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="69"/>
+      <c r="O61" s="50"/>
+    </row>
+    <row r="62" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="71"/>
-      <c r="O56" s="56"/>
-    </row>
-    <row r="57" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="79" t="s">
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="71"/>
+      <c r="O62" s="56"/>
+    </row>
+    <row r="63" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="O58" s="55"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="80" t="s">
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
+      <c r="O64" s="55"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="69"/>
-      <c r="O59" s="50"/>
-    </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="81" t="s">
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="69"/>
+      <c r="O65" s="50"/>
+    </row>
+    <row r="66" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="71"/>
-      <c r="O60" s="56"/>
-    </row>
-    <row r="61" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="79" t="s">
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="71"/>
+      <c r="O66" s="56"/>
+    </row>
+    <row r="67" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="68"/>
-      <c r="O62" s="55"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="80" t="s">
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="68"/>
+      <c r="O68" s="55"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="69"/>
-      <c r="O63" s="50"/>
-    </row>
-    <row r="64" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="81" t="s">
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="69"/>
+      <c r="O69" s="50"/>
+    </row>
+    <row r="70" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="71"/>
-      <c r="O64" s="56"/>
-    </row>
-    <row r="65" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="79" t="s">
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="71"/>
+      <c r="O70" s="56"/>
+    </row>
+    <row r="71" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="68"/>
-      <c r="O66" s="55"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="80" t="s">
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="68"/>
+      <c r="O72" s="55"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="69"/>
-      <c r="O67" s="50"/>
-    </row>
-    <row r="68" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="81" t="s">
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="69"/>
+      <c r="O73" s="50"/>
+    </row>
+    <row r="74" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="71"/>
-      <c r="O68" s="56"/>
-    </row>
-    <row r="69" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="79" t="s">
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="71"/>
+      <c r="O74" s="56"/>
+    </row>
+    <row r="75" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="68"/>
-      <c r="O70" s="55"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="80" t="s">
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="68"/>
+      <c r="O76" s="55"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="69"/>
-      <c r="O71" s="50"/>
-    </row>
-    <row r="72" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="81" t="s">
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="69"/>
+      <c r="O77" s="50"/>
+    </row>
+    <row r="78" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
-      <c r="O72" s="56"/>
-    </row>
-    <row r="73" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="78" t="s">
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="71"/>
+      <c r="O78" s="56"/>
+    </row>
+    <row r="79" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="66"/>
-      <c r="O74" s="64"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="66"/>
+      <c r="O80" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="C59:I59"/>
     <mergeCell ref="H1:O1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="14" scale="66" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="61" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="18" max="80" man="1"/>
   </colBreaks>
@@ -5012,10 +5168,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BA74"/>
+  <dimension ref="A1:BA80"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -5025,7 +5181,7 @@
     <col min="3" max="6" width="10" style="57" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="57" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="57" customWidth="1"/>
-    <col min="9" max="9" width="5" style="57" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" style="57" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.42578125" style="57" customWidth="1"/>
@@ -5068,7 +5224,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5238,37 +5394,23 @@
         <v>34</v>
       </c>
       <c r="C7" s="48">
-        <f>63+20</f>
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="48">
-        <v>17</v>
-      </c>
-      <c r="G7" s="48">
-        <v>1</v>
-      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="48"/>
       <c r="I7" s="48"/>
       <c r="J7" s="109"/>
-      <c r="K7" s="69">
-        <v>6</v>
-      </c>
+      <c r="K7" s="69"/>
       <c r="M7" s="88"/>
       <c r="N7" s="119"/>
-      <c r="O7" s="48">
-        <v>3</v>
-      </c>
+      <c r="O7" s="48"/>
       <c r="P7" s="109"/>
-      <c r="Q7" s="109">
-        <v>2</v>
-      </c>
+      <c r="Q7" s="109"/>
       <c r="R7" s="69"/>
-      <c r="T7" s="91">
-        <f>C7+M7+O7+Q7+1</f>
-        <v>89</v>
-      </c>
+      <c r="T7" s="91"/>
       <c r="U7" s="91"/>
       <c r="AE7" s="60"/>
       <c r="AF7" s="60"/>
@@ -5303,8 +5445,8 @@
         <v>37</v>
       </c>
       <c r="C8" s="95">
-        <f>126+16</f>
-        <v>142</v>
+        <f>63+44</f>
+        <v>107</v>
       </c>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
@@ -5350,7 +5492,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
-        <f t="shared" ref="A9:A50" si="0">A8+1</f>
+        <f t="shared" ref="A9:A56" si="0">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="73" t="s">
@@ -5406,7 +5548,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="47">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -5416,13 +5558,9 @@
       <c r="I10" s="47"/>
       <c r="J10" s="111"/>
       <c r="K10" s="46"/>
-      <c r="M10" s="52">
-        <v>3</v>
-      </c>
+      <c r="M10" s="52"/>
       <c r="N10" s="121"/>
-      <c r="O10" s="47">
-        <v>2</v>
-      </c>
+      <c r="O10" s="47"/>
       <c r="P10" s="111"/>
       <c r="Q10" s="111"/>
       <c r="R10" s="46"/>
@@ -5461,7 +5599,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="47">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
@@ -5511,8 +5649,8 @@
         <v>32</v>
       </c>
       <c r="C12" s="95">
-        <f>37+1800+1152+864</f>
-        <v>3853</v>
+        <f>72+1656+47+576+7440</f>
+        <v>9791</v>
       </c>
       <c r="D12" s="95"/>
       <c r="E12" s="95"/>
@@ -5523,22 +5661,12 @@
       <c r="J12" s="110"/>
       <c r="K12" s="96"/>
       <c r="L12" s="102"/>
-      <c r="M12" s="103">
-        <v>20</v>
-      </c>
+      <c r="M12" s="103"/>
       <c r="N12" s="120"/>
-      <c r="O12" s="97">
-        <v>8</v>
-      </c>
-      <c r="P12" s="113">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="113">
-        <v>21</v>
-      </c>
-      <c r="R12" s="98">
-        <v>4</v>
-      </c>
+      <c r="O12" s="97"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="98"/>
       <c r="S12" s="102"/>
       <c r="T12" s="104"/>
       <c r="U12" s="104"/>
@@ -5633,9 +5761,7 @@
       <c r="B14" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="47">
-        <v>1</v>
-      </c>
+      <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
@@ -5684,9 +5810,7 @@
       <c r="B15" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="47">
-        <v>1</v>
-      </c>
+      <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
@@ -5785,7 +5909,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
@@ -5935,7 +6059,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
@@ -5986,7 +6110,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
@@ -6037,7 +6161,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -6099,7 +6223,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="47">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -6152,16 +6276,16 @@
       <c r="AZ23" s="60"/>
       <c r="BA23" s="60"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="75">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C24" s="47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -6171,14 +6295,25 @@
       <c r="I24" s="47"/>
       <c r="J24" s="111"/>
       <c r="K24" s="46"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="52"/>
       <c r="N24" s="121"/>
       <c r="O24" s="47"/>
       <c r="P24" s="111"/>
       <c r="Q24" s="111"/>
       <c r="R24" s="46"/>
+      <c r="S24" s="57"/>
       <c r="T24" s="50"/>
       <c r="U24" s="50"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
       <c r="AE24" s="60"/>
       <c r="AF24" s="60"/>
       <c r="AG24" s="60"/>
@@ -6209,50 +6344,62 @@
         <v>22</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C25" s="47">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
-      <c r="F25" s="47">
-        <v>22</v>
-      </c>
-      <c r="G25" s="47">
-        <v>1</v>
-      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
       <c r="J25" s="111"/>
       <c r="K25" s="46"/>
       <c r="M25" s="52"/>
       <c r="N25" s="121"/>
-      <c r="O25" s="47">
-        <v>2</v>
-      </c>
+      <c r="O25" s="47"/>
       <c r="P25" s="111"/>
-      <c r="Q25" s="111">
-        <v>2</v>
-      </c>
+      <c r="Q25" s="111"/>
       <c r="R25" s="46"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="AX25" s="62" t="e">
-        <f>#REF!-AX24</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="60"/>
+      <c r="AR25" s="60"/>
+      <c r="AS25" s="60"/>
+      <c r="AT25" s="60"/>
+      <c r="AU25" s="60"/>
+      <c r="AV25" s="60"/>
+      <c r="AW25" s="60"/>
+      <c r="AX25" s="60"/>
+      <c r="AY25" s="60"/>
+      <c r="AZ25" s="60"/>
+      <c r="BA25" s="60"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="47">
-        <v>20</v>
+        <f>63+48</f>
+        <v>111</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
@@ -6262,25 +6409,18 @@
       <c r="I26" s="47"/>
       <c r="J26" s="111"/>
       <c r="K26" s="46"/>
-      <c r="L26" s="57"/>
       <c r="M26" s="52"/>
       <c r="N26" s="121"/>
       <c r="O26" s="47"/>
       <c r="P26" s="111"/>
       <c r="Q26" s="111"/>
       <c r="R26" s="46"/>
-      <c r="S26" s="57"/>
       <c r="T26" s="50"/>
       <c r="U26" s="50"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
+      <c r="AX26" s="62" t="e">
+        <f>#REF!-AX25</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="27" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="75">
@@ -6288,11 +6428,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="47">
-        <f>63+7</f>
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -6305,13 +6444,9 @@
       <c r="L27" s="57"/>
       <c r="M27" s="52"/>
       <c r="N27" s="121"/>
-      <c r="O27" s="47">
-        <v>2</v>
-      </c>
+      <c r="O27" s="47"/>
       <c r="P27" s="111"/>
-      <c r="Q27" s="111">
-        <v>8</v>
-      </c>
+      <c r="Q27" s="111"/>
       <c r="R27" s="46"/>
       <c r="S27" s="57"/>
       <c r="T27" s="50"/>
@@ -6326,16 +6461,17 @@
       <c r="AC27" s="57"/>
       <c r="AD27" s="57"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="75">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="47">
-        <v>7</v>
+        <f>63+4</f>
+        <v>67</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
@@ -6345,18 +6481,25 @@
       <c r="I28" s="47"/>
       <c r="J28" s="111"/>
       <c r="K28" s="46"/>
+      <c r="L28" s="57"/>
       <c r="M28" s="52"/>
       <c r="N28" s="121"/>
-      <c r="O28" s="47">
-        <v>1</v>
-      </c>
+      <c r="O28" s="47"/>
       <c r="P28" s="111"/>
-      <c r="Q28" s="111">
-        <v>1</v>
-      </c>
+      <c r="Q28" s="111"/>
       <c r="R28" s="46"/>
+      <c r="S28" s="57"/>
       <c r="T28" s="50"/>
       <c r="U28" s="50"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="75">
@@ -6364,12 +6507,9 @@
         <v>26</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="47">
-        <f>63+36</f>
-        <v>99</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C29" s="47"/>
       <c r="D29" s="47"/>
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
@@ -6380,13 +6520,9 @@
       <c r="K29" s="46"/>
       <c r="M29" s="52"/>
       <c r="N29" s="121"/>
-      <c r="O29" s="47">
-        <v>1</v>
-      </c>
+      <c r="O29" s="47"/>
       <c r="P29" s="111"/>
-      <c r="Q29" s="111">
-        <v>1</v>
-      </c>
+      <c r="Q29" s="111"/>
       <c r="R29" s="46"/>
       <c r="T29" s="50"/>
       <c r="U29" s="50"/>
@@ -6397,9 +6533,12 @@
         <v>27</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="C30" s="47">
+        <f>63+13</f>
+        <v>76</v>
+      </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
@@ -6423,9 +6562,11 @@
         <v>28</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="47"/>
+        <v>13</v>
+      </c>
+      <c r="C31" s="47">
+        <v>2</v>
+      </c>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -6449,10 +6590,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" s="47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="47"/>
       <c r="E32" s="47"/>
@@ -6477,46 +6618,38 @@
         <v>30</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="47">
-        <f>144+59</f>
-        <v>203</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C33" s="47"/>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
-      <c r="F33" s="47">
-        <v>22</v>
-      </c>
+      <c r="F33" s="47"/>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
       <c r="J33" s="111"/>
-      <c r="K33" s="46">
-        <v>1</v>
-      </c>
+      <c r="K33" s="46"/>
       <c r="M33" s="52"/>
       <c r="N33" s="121"/>
-      <c r="O33" s="47">
-        <v>2</v>
-      </c>
+      <c r="O33" s="47"/>
       <c r="P33" s="111"/>
-      <c r="Q33" s="111">
-        <v>3</v>
-      </c>
+      <c r="Q33" s="111"/>
       <c r="R33" s="46"/>
       <c r="T33" s="50"/>
       <c r="U33" s="50"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="75">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="C34" s="47">
+        <f>144+52</f>
+        <v>196</v>
+      </c>
       <c r="D34" s="47"/>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
@@ -6534,16 +6667,15 @@
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="75">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B35" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="47">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C35" s="47"/>
       <c r="D35" s="47"/>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
@@ -6561,251 +6693,217 @@
       <c r="T35" s="50"/>
       <c r="U35" s="50"/>
     </row>
-    <row r="36" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="75">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="46"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="46"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+    </row>
+    <row r="37" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="75">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="95">
-        <f>2376+4320</f>
-        <v>6696</v>
-      </c>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95">
-        <v>4</v>
-      </c>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95">
-        <v>2</v>
-      </c>
-      <c r="J36" s="110"/>
-      <c r="K36" s="96">
-        <v>2</v>
-      </c>
-      <c r="L36" s="102"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="97">
-        <v>20</v>
-      </c>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113">
-        <v>86</v>
-      </c>
-      <c r="R36" s="98"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="104"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="75">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="73" t="s">
+      <c r="C37" s="95">
+        <f>35+2376+3024+40</f>
+        <v>5475</v>
+      </c>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="104"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="75">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="47">
-        <v>33</v>
-      </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="46"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111">
-        <v>1</v>
-      </c>
-      <c r="R37" s="46"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-    </row>
-    <row r="38" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="95">
-        <f>19+1071</f>
-        <v>1090</v>
-      </c>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="97">
-        <v>2</v>
-      </c>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113">
-        <v>2</v>
-      </c>
-      <c r="R38" s="98"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="104"/>
-      <c r="U38" s="104"/>
+      <c r="C38" s="47">
+        <v>11</v>
+      </c>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="46"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="46"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
     </row>
     <row r="39" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="75">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="95">
+        <f>756+66</f>
+        <v>822</v>
+      </c>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="98"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="104"/>
+    </row>
+    <row r="40" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="75">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="100">
-        <f>2208+56</f>
-        <v>2264</v>
-      </c>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="100">
-        <v>8</v>
-      </c>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112">
-        <v>20</v>
-      </c>
-      <c r="R39" s="101"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="107"/>
-    </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="73" t="s">
+      <c r="C40" s="100">
+        <f>1824+76</f>
+        <v>1900</v>
+      </c>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+    </row>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="75">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="46"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="46"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-    </row>
-    <row r="41" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75">
-        <v>36</v>
-      </c>
-      <c r="B41" s="94" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="46"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="121"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="46"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+    </row>
+    <row r="42" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="75">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="97">
-        <f>5292+1728+24+8424+4968+10800+1</f>
-        <v>31237</v>
-      </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97">
-        <v>4</v>
-      </c>
-      <c r="H41" s="97">
-        <v>26</v>
-      </c>
-      <c r="I41" s="97">
-        <v>1</v>
-      </c>
-      <c r="J41" s="113">
-        <v>38</v>
-      </c>
-      <c r="K41" s="98">
-        <v>4</v>
-      </c>
-      <c r="L41" s="102"/>
-      <c r="M41" s="103">
-        <v>648</v>
-      </c>
-      <c r="N41" s="120"/>
-      <c r="O41" s="97">
-        <v>257</v>
-      </c>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113">
-        <v>541</v>
-      </c>
-      <c r="R41" s="98"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="104"/>
-      <c r="U41" s="104"/>
-    </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B42" s="73" t="s">
+      <c r="C42" s="97">
+        <f>6048+6048+8424+1296+44+7128</f>
+        <v>28988</v>
+      </c>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="98"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+    </row>
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="75">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="73" t="s">
         <v>33</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="46"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="46"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="75">
-        <v>37</v>
-      </c>
-      <c r="B43" s="74" t="s">
-        <v>25</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -6828,14 +6926,12 @@
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="75">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="47">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C44" s="47"/>
       <c r="D44" s="47"/>
       <c r="E44" s="47"/>
       <c r="F44" s="47"/>
@@ -6856,36 +6952,25 @@
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="75">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="47">
-        <f>4+2268+102</f>
-        <v>2374</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C45" s="47"/>
       <c r="D45" s="47"/>
       <c r="E45" s="47"/>
-      <c r="F45" s="47">
-        <v>3</v>
-      </c>
+      <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="111">
-        <v>1</v>
-      </c>
+      <c r="J45" s="111"/>
       <c r="K45" s="46"/>
       <c r="M45" s="52"/>
       <c r="N45" s="121"/>
-      <c r="O45" s="47">
-        <v>2</v>
-      </c>
+      <c r="O45" s="47"/>
       <c r="P45" s="111"/>
-      <c r="Q45" s="111">
-        <v>18</v>
-      </c>
+      <c r="Q45" s="111"/>
       <c r="R45" s="46"/>
       <c r="T45" s="50"/>
       <c r="U45" s="50"/>
@@ -6893,12 +6978,14 @@
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="75">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="47"/>
+        <v>74</v>
+      </c>
+      <c r="C46" s="47">
+        <v>2</v>
+      </c>
       <c r="D46" s="47"/>
       <c r="E46" s="47"/>
       <c r="F46" s="47"/>
@@ -6919,13 +7006,13 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="75">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C47" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
@@ -6947,12 +7034,15 @@
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="75">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="47"/>
+        <v>26</v>
+      </c>
+      <c r="C48" s="47">
+        <f>47+55+2268</f>
+        <v>2370</v>
+      </c>
       <c r="D48" s="47"/>
       <c r="E48" s="47"/>
       <c r="F48" s="47"/>
@@ -6973,14 +7063,12 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="75">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="47">
-        <v>34</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C49" s="47"/>
       <c r="D49" s="47"/>
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
@@ -7001,12 +7089,14 @@
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="75">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="47"/>
+        <v>28</v>
+      </c>
+      <c r="C50" s="47">
+        <v>1</v>
+      </c>
       <c r="D50" s="47"/>
       <c r="E50" s="47"/>
       <c r="F50" s="47"/>
@@ -7024,2981 +7114,496 @@
       <c r="T50" s="50"/>
       <c r="U50" s="50"/>
     </row>
-    <row r="51" spans="1:21" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="77" t="s">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="75">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="46"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="46"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="75">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="47">
+        <v>34</v>
+      </c>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="46"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="121"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="46"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="75">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="46"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="46"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="75">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="74"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="46"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="46"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="75">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="74"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="46"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="46"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="75">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="74"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="46"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="121"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="111"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="46"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+    </row>
+    <row r="57" spans="1:21" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="49">
-        <f>SUM(C7:C50)</f>
-        <v>48407</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49">
-        <f t="shared" ref="F51:K51" si="1">SUM(F7:F50)</f>
-        <v>68</v>
-      </c>
-      <c r="G51" s="49">
+      <c r="C57" s="49">
+        <f>SUM(C7:C56)</f>
+        <v>50229</v>
+      </c>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49">
+        <f t="shared" ref="F57:K57" si="1">SUM(F7:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="49">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H51" s="49">
+        <v>0</v>
+      </c>
+      <c r="H57" s="49">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I51" s="54">
+        <v>0</v>
+      </c>
+      <c r="I57" s="54">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J51" s="54">
+        <v>0</v>
+      </c>
+      <c r="J57" s="54">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="K51" s="54">
+        <v>0</v>
+      </c>
+      <c r="K57" s="54">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="M51" s="53">
-        <f t="shared" ref="M51:R51" si="2">SUM(M7:M50)</f>
-        <v>671</v>
-      </c>
-      <c r="N51" s="53">
+        <v>0</v>
+      </c>
+      <c r="M57" s="53">
+        <f t="shared" ref="M57:R57" si="2">SUM(M7:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O51" s="53">
+      <c r="O57" s="53">
         <f t="shared" si="2"/>
-        <v>310</v>
-      </c>
-      <c r="P51" s="53">
+        <v>0</v>
+      </c>
+      <c r="P57" s="53">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q51" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="53">
         <f t="shared" si="2"/>
-        <v>706</v>
-      </c>
-      <c r="R51" s="53">
+        <v>0</v>
+      </c>
+      <c r="R57" s="53">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="S51" s="57"/>
-      <c r="T51" s="51">
-        <f>SUM(T7:T50)</f>
-        <v>89</v>
-      </c>
-      <c r="U51" s="51">
-        <f>SUM(U7:U50)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="78" t="s">
+      <c r="S57" s="57"/>
+      <c r="T57" s="51">
+        <f>SUM(T7:T56)</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="51">
+        <f>SUM(U7:U56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="130" t="s">
+      <c r="C59" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="132"/>
-      <c r="T53" s="72" t="s">
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="132"/>
+      <c r="T59" s="72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B54" s="79" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B60" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="68"/>
-      <c r="T54" s="55"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="80" t="s">
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="68"/>
+      <c r="T60" s="55"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B61" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="69"/>
-      <c r="T55" s="50"/>
-    </row>
-    <row r="56" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="81" t="s">
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="69"/>
+      <c r="T61" s="50"/>
+    </row>
+    <row r="62" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="71"/>
-      <c r="T56" s="56"/>
-    </row>
-    <row r="57" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="79" t="s">
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="71"/>
+      <c r="T62" s="56"/>
+    </row>
+    <row r="63" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B64" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="68"/>
-      <c r="T58" s="55"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="80" t="s">
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="68"/>
+      <c r="T64" s="55"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="69"/>
-      <c r="T59" s="50"/>
-    </row>
-    <row r="60" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="81" t="s">
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="69"/>
+      <c r="T65" s="50"/>
+    </row>
+    <row r="66" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="71"/>
-      <c r="T60" s="56"/>
-    </row>
-    <row r="61" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B62" s="79" t="s">
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="71"/>
+      <c r="T66" s="56"/>
+    </row>
+    <row r="67" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="68"/>
-      <c r="T62" s="55"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B63" s="80" t="s">
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="68"/>
+      <c r="T68" s="55"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="109"/>
-      <c r="K63" s="69"/>
-      <c r="T63" s="50"/>
-    </row>
-    <row r="64" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="81" t="s">
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="109"/>
+      <c r="K69" s="69"/>
+      <c r="T69" s="50"/>
+    </row>
+    <row r="70" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="71"/>
-      <c r="T64" s="56"/>
-    </row>
-    <row r="65" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="79" t="s">
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="115"/>
+      <c r="K70" s="71"/>
+      <c r="T70" s="56"/>
+    </row>
+    <row r="71" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="68"/>
-      <c r="T66" s="55"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="80" t="s">
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="68"/>
+      <c r="T72" s="55"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="69"/>
-      <c r="T67" s="50"/>
-    </row>
-    <row r="68" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="81" t="s">
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="69"/>
+      <c r="T73" s="50"/>
+    </row>
+    <row r="74" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="71"/>
-      <c r="T68" s="56"/>
-    </row>
-    <row r="69" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="79" t="s">
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="71"/>
+      <c r="T74" s="56"/>
+    </row>
+    <row r="75" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="68"/>
-      <c r="T70" s="55"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="80" t="s">
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="114"/>
+      <c r="K76" s="68"/>
+      <c r="T76" s="55"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="69"/>
-      <c r="T71" s="50"/>
-    </row>
-    <row r="72" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="81" t="s">
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="69"/>
+      <c r="T77" s="50"/>
+    </row>
+    <row r="78" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="71"/>
-      <c r="T72" s="56"/>
-    </row>
-    <row r="73" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="78" t="s">
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="115"/>
+      <c r="K78" s="71"/>
+      <c r="T78" s="56"/>
+    </row>
+    <row r="79" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="116"/>
-      <c r="K74" s="66"/>
-      <c r="T74" s="64"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="66"/>
+      <c r="T80" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I1:T1"/>
     <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C53:K53"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="14" scale="70" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="23" max="80" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3B4813-E558-48D1-978D-147EF40DE8F0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BA74"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="76" customWidth="1"/>
-    <col min="3" max="3" width="14" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10" style="57" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="57" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="57" customWidth="1"/>
-    <col min="9" max="9" width="5" style="57" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="57" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" style="57" customWidth="1"/>
-    <col min="13" max="13" width="10" style="57" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="57" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="57" customWidth="1"/>
-    <col min="17" max="17" width="10" style="57" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="1.42578125" style="57" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="57" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="57" customWidth="1"/>
-    <col min="22" max="48" width="7.28515625" style="57" customWidth="1"/>
-    <col min="49" max="49" width="1.5703125" style="57" customWidth="1"/>
-    <col min="50" max="50" width="9.42578125" style="57" customWidth="1"/>
-    <col min="51" max="51" width="1.28515625" style="57" customWidth="1"/>
-    <col min="52" max="52" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="128" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="129"/>
-      <c r="M4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-    </row>
-    <row r="5" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="87"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="89"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59"/>
-    </row>
-    <row r="6" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="87"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="89"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
-        <v>1</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="48">
-        <f>63+17</f>
-        <v>80</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48">
-        <v>17</v>
-      </c>
-      <c r="G7" s="48">
-        <v>1</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="69">
-        <v>6</v>
-      </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="48">
-        <v>3</v>
-      </c>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109">
-        <v>1</v>
-      </c>
-      <c r="R7" s="69"/>
-      <c r="T7" s="91">
-        <f>C7+M7+O7+Q7+1</f>
-        <v>85</v>
-      </c>
-      <c r="U7" s="91">
-        <f>N7+P7+R7</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="60"/>
-      <c r="AX7" s="60"/>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="60"/>
-      <c r="BA7" s="60"/>
-    </row>
-    <row r="8" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75">
-        <f>A7+1</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="95">
-        <f>126+14+1</f>
-        <v>141</v>
-      </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103">
-        <v>1</v>
-      </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113">
-        <v>1</v>
-      </c>
-      <c r="R8" s="98"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="91">
-        <f>C8+M8+O8+Q8</f>
-        <v>143</v>
-      </c>
-      <c r="U8" s="91">
-        <f t="shared" ref="U8:U50" si="0">N8+P8+R8</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="60"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="60"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="60"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
-        <f t="shared" ref="A9:A50" si="1">A8+1</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="46"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="46"/>
-      <c r="T9" s="91">
-        <f t="shared" ref="T9:T50" si="2">C9+M9+O9+Q9</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="47">
-        <v>7</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="46"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="47">
-        <v>2</v>
-      </c>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="46"/>
-      <c r="T10" s="91">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="U10" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="47">
-        <v>28</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="46"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="46"/>
-      <c r="T11" s="91">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="U11" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-    </row>
-    <row r="12" spans="1:53" s="61" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75">
-        <v>7</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="95">
-        <f>1152+48+1728+864+6</f>
-        <v>3798</v>
-      </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="103">
-        <v>10</v>
-      </c>
-      <c r="N12" s="120"/>
-      <c r="O12" s="97">
-        <v>11</v>
-      </c>
-      <c r="P12" s="113">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="113">
-        <v>15</v>
-      </c>
-      <c r="R12" s="98">
-        <v>8</v>
-      </c>
-      <c r="S12" s="102"/>
-      <c r="T12" s="91">
-        <f t="shared" si="2"/>
-        <v>3834</v>
-      </c>
-      <c r="U12" s="91">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="60"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="60"/>
-      <c r="BA12" s="60"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
-        <v>11</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="47">
-        <v>5</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="46"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="46"/>
-      <c r="T13" s="91">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="U13" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="60"/>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="60"/>
-      <c r="AP13" s="60"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="60"/>
-      <c r="AT13" s="60"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="60"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="60"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="75">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="47">
-        <v>1</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="46"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="46"/>
-      <c r="T14" s="91">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="60"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="60"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="75">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="47">
-        <v>1</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="46"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="46"/>
-      <c r="T15" s="91">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="60"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="75">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="46"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="46"/>
-      <c r="T16" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="60"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="60"/>
-      <c r="AP16" s="60"/>
-      <c r="AQ16" s="60"/>
-      <c r="AR16" s="60"/>
-      <c r="AS16" s="60"/>
-      <c r="AT16" s="60"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="60"/>
-      <c r="AW16" s="60"/>
-      <c r="AX16" s="60"/>
-      <c r="AY16" s="60"/>
-      <c r="AZ16" s="60"/>
-      <c r="BA16" s="60"/>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="75">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="47">
-        <v>6</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="46"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="46"/>
-      <c r="T17" s="91">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="U17" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="60"/>
-      <c r="AP17" s="60"/>
-      <c r="AQ17" s="60"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="60"/>
-      <c r="AT17" s="60"/>
-      <c r="AU17" s="60"/>
-      <c r="AV17" s="60"/>
-      <c r="AW17" s="60"/>
-      <c r="AX17" s="60"/>
-      <c r="AY17" s="60"/>
-      <c r="AZ17" s="60"/>
-      <c r="BA17" s="60"/>
-    </row>
-    <row r="18" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="46"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="46"/>
-      <c r="T18" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="60"/>
-      <c r="AM18" s="60"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="60"/>
-      <c r="AP18" s="60"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="60"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="60"/>
-      <c r="AU18" s="60"/>
-      <c r="AV18" s="60"/>
-      <c r="AW18" s="60"/>
-      <c r="AX18" s="60"/>
-      <c r="AY18" s="60"/>
-      <c r="AZ18" s="60"/>
-      <c r="BA18" s="60"/>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A19" s="75">
-        <v>16</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="47">
-        <v>4</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="46"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="46"/>
-      <c r="T19" s="91">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="U19" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="60"/>
-      <c r="AM19" s="60"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="60"/>
-      <c r="AP19" s="60"/>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="60"/>
-      <c r="AT19" s="60"/>
-      <c r="AU19" s="60"/>
-      <c r="AV19" s="60"/>
-      <c r="AW19" s="60"/>
-      <c r="AX19" s="60"/>
-      <c r="AY19" s="60"/>
-      <c r="AZ19" s="60"/>
-      <c r="BA19" s="60"/>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" s="75">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="47">
-        <v>7</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="46"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="46"/>
-      <c r="T20" s="91">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="U20" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="60"/>
-      <c r="AM20" s="60"/>
-      <c r="AN20" s="60"/>
-      <c r="AO20" s="60"/>
-      <c r="AP20" s="60"/>
-      <c r="AQ20" s="60"/>
-      <c r="AR20" s="60"/>
-      <c r="AS20" s="60"/>
-      <c r="AT20" s="60"/>
-      <c r="AU20" s="60"/>
-      <c r="AV20" s="60"/>
-      <c r="AW20" s="60"/>
-      <c r="AX20" s="60"/>
-      <c r="AY20" s="60"/>
-      <c r="AZ20" s="60"/>
-      <c r="BA20" s="60"/>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A21" s="75">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="47">
-        <v>6</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="46"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="46"/>
-      <c r="T21" s="91">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="U21" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="60"/>
-      <c r="AP21" s="60"/>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="60"/>
-      <c r="AS21" s="60"/>
-      <c r="AT21" s="60"/>
-      <c r="AU21" s="60"/>
-      <c r="AV21" s="60"/>
-      <c r="AW21" s="60"/>
-      <c r="AX21" s="60"/>
-      <c r="AY21" s="60"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="60"/>
-    </row>
-    <row r="22" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="47">
-        <v>4</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="91">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="U22" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="60"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="60"/>
-      <c r="AP22" s="60"/>
-      <c r="AQ22" s="60"/>
-      <c r="AR22" s="60"/>
-      <c r="AS22" s="60"/>
-      <c r="AT22" s="60"/>
-      <c r="AU22" s="60"/>
-      <c r="AV22" s="60"/>
-      <c r="AW22" s="60"/>
-      <c r="AX22" s="60"/>
-      <c r="AY22" s="60"/>
-      <c r="AZ22" s="60"/>
-      <c r="BA22" s="60"/>
-    </row>
-    <row r="23" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="47">
-        <v>55</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="91">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="U23" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="60"/>
-      <c r="AL23" s="60"/>
-      <c r="AM23" s="60"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="60"/>
-      <c r="AP23" s="60"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="60"/>
-      <c r="AS23" s="60"/>
-      <c r="AT23" s="60"/>
-      <c r="AU23" s="60"/>
-      <c r="AV23" s="60"/>
-      <c r="AW23" s="60"/>
-      <c r="AX23" s="60"/>
-      <c r="AY23" s="60"/>
-      <c r="AZ23" s="60"/>
-      <c r="BA23" s="60"/>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A24" s="75">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B24" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="47">
-        <v>8</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="46"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="46"/>
-      <c r="T24" s="91">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="U24" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="60"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="60"/>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="60"/>
-      <c r="AN24" s="60"/>
-      <c r="AO24" s="60"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="60"/>
-      <c r="AR24" s="60"/>
-      <c r="AS24" s="60"/>
-      <c r="AT24" s="60"/>
-      <c r="AU24" s="60"/>
-      <c r="AV24" s="60"/>
-      <c r="AW24" s="60"/>
-      <c r="AX24" s="60"/>
-      <c r="AY24" s="60"/>
-      <c r="AZ24" s="60"/>
-      <c r="BA24" s="60"/>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A25" s="75">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="47">
-        <v>61</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47">
-        <v>22</v>
-      </c>
-      <c r="G25" s="47">
-        <v>1</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="46"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="47">
-        <v>1</v>
-      </c>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="46"/>
-      <c r="T25" s="91">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="U25" s="91">
-        <f>F25+G25+N25+P25+R25</f>
-        <v>23</v>
-      </c>
-      <c r="AX25" s="62" t="e">
-        <f>#REF!-AX24</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="47">
-        <v>20</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="91">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="U26" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-    </row>
-    <row r="27" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="75">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="47">
-        <v>60</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="52">
-        <v>1</v>
-      </c>
-      <c r="N27" s="121"/>
-      <c r="O27" s="47">
-        <v>2</v>
-      </c>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111">
-        <v>3</v>
-      </c>
-      <c r="R27" s="46"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="91">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="U27" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A28" s="75">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="47">
-        <v>4</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="46"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111">
-        <v>1</v>
-      </c>
-      <c r="R28" s="46"/>
-      <c r="T28" s="91">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="U28" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A29" s="75">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="47">
-        <f>63+33+1</f>
-        <v>97</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="46"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111">
-        <v>1</v>
-      </c>
-      <c r="R29" s="46"/>
-      <c r="T29" s="91">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="U29" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A30" s="75">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="46"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="46"/>
-      <c r="T30" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A31" s="75">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="46"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="46"/>
-      <c r="T31" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A32" s="75">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="47">
-        <v>5</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="46"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="46"/>
-      <c r="T32" s="91">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="U32" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="75">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="47">
-        <f>144+53</f>
-        <v>197</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47">
-        <v>22</v>
-      </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="46">
-        <v>1</v>
-      </c>
-      <c r="M33" s="52">
-        <v>1</v>
-      </c>
-      <c r="N33" s="121"/>
-      <c r="O33" s="47">
-        <v>3</v>
-      </c>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111">
-        <v>2</v>
-      </c>
-      <c r="R33" s="46"/>
-      <c r="T33" s="91">
-        <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-      <c r="U33" s="91">
-        <f>F33+K33+N33+P33+R33</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B34" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="46"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="46"/>
-      <c r="T34" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="91">
-        <f t="shared" ref="U34:U37" si="3">F34+K34+N34+P34+R34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="75">
-        <v>31</v>
-      </c>
-      <c r="B35" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="47">
-        <v>1</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="46"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="46"/>
-      <c r="T35" s="91">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U35" s="91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="95">
-        <f>2376+4104+55</f>
-        <v>6535</v>
-      </c>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95">
-        <v>4</v>
-      </c>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95">
-        <v>2</v>
-      </c>
-      <c r="J36" s="110"/>
-      <c r="K36" s="96">
-        <v>2</v>
-      </c>
-      <c r="L36" s="102"/>
-      <c r="M36" s="103">
-        <v>20</v>
-      </c>
-      <c r="N36" s="120"/>
-      <c r="O36" s="97">
-        <v>37</v>
-      </c>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113">
-        <v>80</v>
-      </c>
-      <c r="R36" s="98"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="91">
-        <f t="shared" si="2"/>
-        <v>6672</v>
-      </c>
-      <c r="U36" s="91">
-        <f>F36+I36+K36+N36+P36+R36</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="75">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="47">
-        <f>33+1</f>
-        <v>34</v>
-      </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="46"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111">
-        <v>1</v>
-      </c>
-      <c r="R37" s="46"/>
-      <c r="T37" s="91">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="U37" s="91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="95">
-        <f>17+1071</f>
-        <v>1088</v>
-      </c>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="97">
-        <v>2</v>
-      </c>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113">
-        <v>2</v>
-      </c>
-      <c r="R38" s="98"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="91">
-        <f t="shared" si="2"/>
-        <v>1092</v>
-      </c>
-      <c r="U38" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="100">
-        <f>2208+6+3</f>
-        <v>2217</v>
-      </c>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="106">
-        <v>5</v>
-      </c>
-      <c r="N39" s="122"/>
-      <c r="O39" s="100">
-        <v>12</v>
-      </c>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="112">
-        <v>20</v>
-      </c>
-      <c r="R39" s="101"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="91">
-        <f t="shared" si="2"/>
-        <v>2254</v>
-      </c>
-      <c r="U39" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="46"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="46"/>
-      <c r="T40" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75">
-        <v>36</v>
-      </c>
-      <c r="B41" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="97">
-        <f>8+4212+93+3564+8424+4968+10800+1738</f>
-        <v>33807</v>
-      </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97">
-        <v>2</v>
-      </c>
-      <c r="G41" s="97">
-        <v>6</v>
-      </c>
-      <c r="H41" s="97">
-        <v>3</v>
-      </c>
-      <c r="I41" s="97">
-        <v>3</v>
-      </c>
-      <c r="J41" s="113">
-        <v>64</v>
-      </c>
-      <c r="K41" s="98">
-        <v>4</v>
-      </c>
-      <c r="L41" s="102"/>
-      <c r="M41" s="103">
-        <v>663</v>
-      </c>
-      <c r="N41" s="120"/>
-      <c r="O41" s="97">
-        <v>274</v>
-      </c>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113">
-        <v>509</v>
-      </c>
-      <c r="R41" s="98"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="91">
-        <f t="shared" si="2"/>
-        <v>35253</v>
-      </c>
-      <c r="U41" s="91">
-        <f>F41+G41+I41+N41+K41+P41+R41</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B42" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="46"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="111"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="46"/>
-      <c r="T42" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="75">
-        <v>37</v>
-      </c>
-      <c r="B43" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="46"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="46"/>
-      <c r="T43" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="75">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B44" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="47">
-        <v>2</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="46"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="111"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="46"/>
-      <c r="T44" s="91">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="U44" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="75">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="47">
-        <f>42268+102+11</f>
-        <v>42381</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47">
-        <v>3</v>
-      </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="111">
-        <v>1</v>
-      </c>
-      <c r="K45" s="46"/>
-      <c r="M45" s="52">
-        <v>5</v>
-      </c>
-      <c r="N45" s="121"/>
-      <c r="O45" s="47">
-        <v>1</v>
-      </c>
-      <c r="P45" s="111">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="111">
-        <v>14</v>
-      </c>
-      <c r="R45" s="46"/>
-      <c r="T45" s="91">
-        <f t="shared" si="2"/>
-        <v>42401</v>
-      </c>
-      <c r="U45" s="91">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="75">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B46" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="46"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="121"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="46"/>
-      <c r="T46" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="75">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B47" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="46"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="121"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="46"/>
-      <c r="T47" s="91">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U47" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="75">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B48" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="46"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="111"/>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="46"/>
-      <c r="T48" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="75">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B49" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="47">
-        <v>34</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="46"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="46"/>
-      <c r="T49" s="91">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="U49" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="75">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B50" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="46"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="46"/>
-      <c r="T50" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="91">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="49">
-        <f>SUM(C7:C50)</f>
-        <v>90695</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49">
-        <f t="shared" ref="F51:K51" si="4">SUM(F7:F50)</f>
-        <v>70</v>
-      </c>
-      <c r="G51" s="49">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="H51" s="49">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I51" s="54">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J51" s="54">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="K51" s="54">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="M51" s="53">
-        <f t="shared" ref="M51:R51" si="5">SUM(M7:M50)</f>
-        <v>706</v>
-      </c>
-      <c r="N51" s="53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="53">
-        <f t="shared" si="5"/>
-        <v>348</v>
-      </c>
-      <c r="P51" s="53">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="Q51" s="53">
-        <f t="shared" si="5"/>
-        <v>650</v>
-      </c>
-      <c r="R51" s="53">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="S51" s="57"/>
-      <c r="T51" s="51">
-        <f>SUM(T7:T50)</f>
-        <v>92400</v>
-      </c>
-      <c r="U51" s="51">
-        <f>SUM(U7:U50)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="132"/>
-      <c r="T53" s="72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B54" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="68"/>
-      <c r="T54" s="55"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="69"/>
-      <c r="T55" s="50"/>
-    </row>
-    <row r="56" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="71"/>
-      <c r="T56" s="56"/>
-    </row>
-    <row r="57" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="68"/>
-      <c r="T58" s="55"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="69"/>
-      <c r="T59" s="50"/>
-    </row>
-    <row r="60" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="71"/>
-      <c r="T60" s="56"/>
-    </row>
-    <row r="61" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B62" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="68"/>
-      <c r="T62" s="55"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B63" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="109"/>
-      <c r="K63" s="69"/>
-      <c r="T63" s="50"/>
-    </row>
-    <row r="64" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="71"/>
-      <c r="T64" s="56"/>
-    </row>
-    <row r="65" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="68"/>
-      <c r="T66" s="55"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="69"/>
-      <c r="T67" s="50"/>
-    </row>
-    <row r="68" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="71"/>
-      <c r="T68" s="56"/>
-    </row>
-    <row r="69" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="68"/>
-      <c r="T70" s="55"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="69"/>
-      <c r="T71" s="50"/>
-    </row>
-    <row r="72" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="71"/>
-      <c r="T72" s="56"/>
-    </row>
-    <row r="73" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="116"/>
-      <c r="K74" s="66"/>
-      <c r="T74" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C59:K59"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/GBDS FEBRUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/INVENTORY COUNT SHEET 2026.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B1EDB9-6587-4F48-ACA8-B29B6527BCE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE0056A-091A-4F77-A8F0-AAE81C1F1024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D34C963E-9680-4B45-A4EE-B681FF0CEC08}"/>
   </bookViews>
   <sheets>
     <sheet name="COUNT SHEET" sheetId="9" r:id="rId1"/>
     <sheet name="COUNT SHEET SAMPLE" sheetId="10" r:id="rId2"/>
-    <sheet name="02-03-2026" sheetId="11" r:id="rId3"/>
+    <sheet name="02-13-2026" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'02-03-2026'!$A$1:$V$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'02-13-2026'!$A$1:$W$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'COUNT SHEET'!$A$1:$AM$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'COUNT SHEET SAMPLE'!$A$1:$Q$88</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="82">
   <si>
     <t>ROUTE 1</t>
   </si>
@@ -257,9 +257,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>bot</t>
   </si>
   <si>
@@ -272,7 +269,22 @@
     <t>MGYZ</t>
   </si>
   <si>
-    <t>DATE: 02/03/2026</t>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>WB BO LIL</t>
+  </si>
+  <si>
+    <t>TOTAL INVENTORY PER CASE</t>
+  </si>
+  <si>
+    <t>TOTAL INVENTORY BOTTLE PER CASE</t>
+  </si>
+  <si>
+    <t>WAREHOUSE,  MISSING, BO, LILOY</t>
+  </si>
+  <si>
+    <t>DATE: 02/13/2026</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1286,6 +1298,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1293,7 +1361,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1709,6 +1777,42 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4158,7 +4262,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -4692,7 +4796,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -4712,7 +4816,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -5168,10 +5272,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BA80"/>
+  <dimension ref="A1:BB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -5192,18 +5296,19 @@
     <col min="17" max="17" width="10" style="57" customWidth="1"/>
     <col min="18" max="18" width="5.5703125" style="57" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="1.42578125" style="57" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="57" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="57" customWidth="1"/>
-    <col min="22" max="48" width="7.28515625" style="57" customWidth="1"/>
-    <col min="49" max="49" width="1.5703125" style="57" customWidth="1"/>
-    <col min="50" max="50" width="9.42578125" style="57" customWidth="1"/>
-    <col min="51" max="51" width="1.28515625" style="57" customWidth="1"/>
-    <col min="52" max="52" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="57"/>
+    <col min="20" max="20" width="12.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="49" width="7.28515625" style="57" customWidth="1"/>
+    <col min="50" max="50" width="1.5703125" style="57" customWidth="1"/>
+    <col min="51" max="51" width="9.42578125" style="57" customWidth="1"/>
+    <col min="52" max="52" width="1.28515625" style="57" customWidth="1"/>
+    <col min="53" max="53" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="75" t="s">
         <v>51</v>
       </c>
@@ -5221,14 +5326,15 @@
       <c r="R1" s="133"/>
       <c r="S1" s="133"/>
       <c r="T1" s="133"/>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="U1" s="133"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:54" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="93" t="s">
         <v>63</v>
       </c>
@@ -5247,28 +5353,30 @@
         <v>0</v>
       </c>
       <c r="N4" s="117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="84" t="s">
         <v>45</v>
       </c>
       <c r="P4" s="117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="85" t="s">
         <v>46</v>
       </c>
       <c r="R4" s="117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S4" s="57"/>
-      <c r="T4" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE4" s="59"/>
+      <c r="T4" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="140" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="138" t="s">
+        <v>78</v>
+      </c>
       <c r="AF4" s="59"/>
       <c r="AG4" s="59"/>
       <c r="AH4" s="59"/>
@@ -5291,24 +5399,25 @@
       <c r="AY4" s="59"/>
       <c r="AZ4" s="59"/>
       <c r="BA4" s="59"/>
-    </row>
-    <row r="5" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BB4" s="59"/>
+    </row>
+    <row r="5" spans="1:54" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="87"/>
       <c r="C5" s="92"/>
       <c r="D5" s="92"/>
       <c r="E5" s="92"/>
       <c r="F5" s="92"/>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="89"/>
+      <c r="J5" s="135" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="136"/>
       <c r="M5" s="87"/>
       <c r="N5" s="118"/>
       <c r="O5" s="92"/>
@@ -5316,9 +5425,9 @@
       <c r="Q5" s="108"/>
       <c r="R5" s="89"/>
       <c r="S5" s="57"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="AE5" s="59"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="139"/>
       <c r="AF5" s="59"/>
       <c r="AG5" s="59"/>
       <c r="AH5" s="59"/>
@@ -5341,8 +5450,9 @@
       <c r="AY5" s="59"/>
       <c r="AZ5" s="59"/>
       <c r="BA5" s="59"/>
-    </row>
-    <row r="6" spans="1:53" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BB5" s="59"/>
+    </row>
+    <row r="6" spans="1:54" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="87"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92"/>
@@ -5362,7 +5472,7 @@
       <c r="S6" s="57"/>
       <c r="T6" s="90"/>
       <c r="U6" s="90"/>
-      <c r="AE6" s="59"/>
+      <c r="V6" s="90"/>
       <c r="AF6" s="59"/>
       <c r="AG6" s="59"/>
       <c r="AH6" s="59"/>
@@ -5385,8 +5495,9 @@
       <c r="AY6" s="59"/>
       <c r="AZ6" s="59"/>
       <c r="BA6" s="59"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB6" s="59"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <v>1</v>
       </c>
@@ -5394,25 +5505,47 @@
         <v>34</v>
       </c>
       <c r="C7" s="48">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="48">
+        <v>17</v>
+      </c>
+      <c r="I7" s="48">
+        <v>1</v>
+      </c>
       <c r="J7" s="109"/>
-      <c r="K7" s="69"/>
-      <c r="M7" s="88"/>
+      <c r="K7" s="69">
+        <v>6</v>
+      </c>
+      <c r="M7" s="88">
+        <v>1</v>
+      </c>
       <c r="N7" s="119"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="48">
+        <v>3</v>
+      </c>
       <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
+      <c r="Q7" s="109">
+        <v>2</v>
+      </c>
       <c r="R7" s="69"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="AE7" s="60"/>
+      <c r="T7" s="91">
+        <f>H7+I7+J7+K7+N7+P7+R7</f>
+        <v>24</v>
+      </c>
+      <c r="U7" s="91">
+        <f>C7*24+M7*24+O7*24+Q7*24+T7</f>
+        <v>840</v>
+      </c>
+      <c r="V7" s="91">
+        <f>U7/24</f>
+        <v>35</v>
+      </c>
+      <c r="W7" s="137"/>
       <c r="AF7" s="60"/>
       <c r="AG7" s="60"/>
       <c r="AH7" s="60"/>
@@ -5435,8 +5568,9 @@
       <c r="AY7" s="60"/>
       <c r="AZ7" s="60"/>
       <c r="BA7" s="60"/>
-    </row>
-    <row r="8" spans="1:53" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BB7" s="60"/>
+    </row>
+    <row r="8" spans="1:54" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="75">
         <f>A7+1</f>
         <v>2</v>
@@ -5445,8 +5579,8 @@
         <v>37</v>
       </c>
       <c r="C8" s="95">
-        <f>63+44</f>
-        <v>107</v>
+        <f>63+32</f>
+        <v>95</v>
       </c>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
@@ -5457,16 +5591,28 @@
       <c r="J8" s="110"/>
       <c r="K8" s="96"/>
       <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
+      <c r="M8" s="103">
+        <v>2</v>
+      </c>
       <c r="N8" s="120"/>
       <c r="O8" s="97"/>
       <c r="P8" s="113"/>
       <c r="Q8" s="113"/>
       <c r="R8" s="98"/>
       <c r="S8" s="102"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="AE8" s="60"/>
+      <c r="T8" s="146">
+        <f t="shared" ref="T8:T38" si="0">H8+I8+J8+K8+N8+P8+R8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="144">
+        <f>C8*24+M8*24+O8*24+Q8*24+T8</f>
+        <v>2328</v>
+      </c>
+      <c r="V8" s="144">
+        <f>U8/24</f>
+        <v>97</v>
+      </c>
+      <c r="W8" s="137"/>
       <c r="AF8" s="60"/>
       <c r="AG8" s="60"/>
       <c r="AH8" s="60"/>
@@ -5489,10 +5635,11 @@
       <c r="AY8" s="60"/>
       <c r="AZ8" s="60"/>
       <c r="BA8" s="60"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB8" s="60"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
-        <f t="shared" ref="A9:A56" si="0">A8+1</f>
+        <f t="shared" ref="A9:A56" si="1">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="73" t="s">
@@ -5513,9 +5660,19 @@
       <c r="P9" s="111"/>
       <c r="Q9" s="111"/>
       <c r="R9" s="46"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="AE9" s="60"/>
+      <c r="T9" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="145">
+        <f t="shared" ref="U9:U12" si="2">C9*24+M9*24+O9*24+Q9*24+T9</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="145">
+        <f t="shared" ref="V9:V11" si="3">U9/24</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="137"/>
       <c r="AF9" s="60"/>
       <c r="AG9" s="60"/>
       <c r="AH9" s="60"/>
@@ -5538,17 +5695,18 @@
       <c r="AY9" s="60"/>
       <c r="AZ9" s="60"/>
       <c r="BA9" s="60"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB9" s="60"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="47">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -5564,9 +5722,19 @@
       <c r="P10" s="111"/>
       <c r="Q10" s="111"/>
       <c r="R10" s="46"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="AE10" s="60"/>
+      <c r="T10" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="91">
+        <f t="shared" si="2"/>
+        <v>1584</v>
+      </c>
+      <c r="V10" s="91">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="W10" s="137"/>
       <c r="AF10" s="60"/>
       <c r="AG10" s="60"/>
       <c r="AH10" s="60"/>
@@ -5589,35 +5757,47 @@
       <c r="AY10" s="60"/>
       <c r="AZ10" s="60"/>
       <c r="BA10" s="60"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB10" s="60"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="47">
-        <v>1</v>
-      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
+      <c r="H11" s="47">
+        <v>22</v>
+      </c>
       <c r="I11" s="47"/>
       <c r="J11" s="111"/>
-      <c r="K11" s="46"/>
+      <c r="K11" s="46">
+        <v>2</v>
+      </c>
       <c r="M11" s="52"/>
       <c r="N11" s="121"/>
       <c r="O11" s="47"/>
       <c r="P11" s="111"/>
       <c r="Q11" s="111"/>
       <c r="R11" s="46"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="AE11" s="60"/>
+      <c r="T11" s="91">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="U11" s="91">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="V11" s="91">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="AF11" s="60"/>
       <c r="AG11" s="60"/>
       <c r="AH11" s="60"/>
@@ -5640,8 +5820,9 @@
       <c r="AY11" s="60"/>
       <c r="AZ11" s="60"/>
       <c r="BA11" s="60"/>
-    </row>
-    <row r="12" spans="1:53" s="61" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BB11" s="60"/>
+    </row>
+    <row r="12" spans="1:54" s="61" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75">
         <v>7</v>
       </c>
@@ -5649,8 +5830,8 @@
         <v>32</v>
       </c>
       <c r="C12" s="95">
-        <f>72+1656+47+576+7440</f>
-        <v>9791</v>
+        <f>72+1440+25+1440+576</f>
+        <v>3553</v>
       </c>
       <c r="D12" s="95"/>
       <c r="E12" s="95"/>
@@ -5663,14 +5844,31 @@
       <c r="L12" s="102"/>
       <c r="M12" s="103"/>
       <c r="N12" s="120"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="98"/>
+      <c r="O12" s="97">
+        <v>12</v>
+      </c>
+      <c r="P12" s="113">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="113">
+        <v>19</v>
+      </c>
+      <c r="R12" s="98">
+        <v>6</v>
+      </c>
       <c r="S12" s="102"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="57"/>
+      <c r="T12" s="91">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="U12" s="144">
+        <f>C12*24+M12*24+O12*24+Q12*24+T12</f>
+        <v>86037</v>
+      </c>
+      <c r="V12" s="144">
+        <f>U12/24</f>
+        <v>3584.875</v>
+      </c>
       <c r="W12" s="57"/>
       <c r="X12" s="57"/>
       <c r="Y12" s="57"/>
@@ -5679,7 +5877,7 @@
       <c r="AB12" s="57"/>
       <c r="AC12" s="57"/>
       <c r="AD12" s="57"/>
-      <c r="AE12" s="60"/>
+      <c r="AE12" s="57"/>
       <c r="AF12" s="60"/>
       <c r="AG12" s="60"/>
       <c r="AH12" s="60"/>
@@ -5702,8 +5900,9 @@
       <c r="AY12" s="60"/>
       <c r="AZ12" s="60"/>
       <c r="BA12" s="60"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB12" s="60"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="75">
         <v>11</v>
       </c>
@@ -5727,9 +5926,18 @@
       <c r="P13" s="111"/>
       <c r="Q13" s="111"/>
       <c r="R13" s="46"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="AE13" s="60"/>
+      <c r="T13" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="145">
+        <f>C13*24+M13*24+O13*24+Q13*24+T13</f>
+        <v>120</v>
+      </c>
+      <c r="V13" s="145">
+        <f>U13/24</f>
+        <v>5</v>
+      </c>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -5752,10 +5960,11 @@
       <c r="AY13" s="60"/>
       <c r="AZ13" s="60"/>
       <c r="BA13" s="60"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB13" s="60"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="74" t="s">
@@ -5776,9 +5985,18 @@
       <c r="P14" s="111"/>
       <c r="Q14" s="111"/>
       <c r="R14" s="46"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="AE14" s="60"/>
+      <c r="T14" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="50">
+        <f t="shared" ref="U14:U37" si="4">C14*24+M14*24+O14*24+Q14*24+T14</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="50">
+        <f t="shared" ref="V14:V37" si="5">U14/24</f>
+        <v>0</v>
+      </c>
       <c r="AF14" s="60"/>
       <c r="AG14" s="60"/>
       <c r="AH14" s="60"/>
@@ -5801,10 +6019,11 @@
       <c r="AY14" s="60"/>
       <c r="AZ14" s="60"/>
       <c r="BA14" s="60"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB14" s="60"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="74" t="s">
@@ -5825,9 +6044,18 @@
       <c r="P15" s="111"/>
       <c r="Q15" s="111"/>
       <c r="R15" s="46"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="AE15" s="60"/>
+      <c r="T15" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF15" s="60"/>
       <c r="AG15" s="60"/>
       <c r="AH15" s="60"/>
@@ -5850,10 +6078,11 @@
       <c r="AY15" s="60"/>
       <c r="AZ15" s="60"/>
       <c r="BA15" s="60"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB15" s="60"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="74" t="s">
@@ -5874,9 +6103,18 @@
       <c r="P16" s="111"/>
       <c r="Q16" s="111"/>
       <c r="R16" s="46"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="AE16" s="60"/>
+      <c r="T16" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF16" s="60"/>
       <c r="AG16" s="60"/>
       <c r="AH16" s="60"/>
@@ -5899,17 +6137,18 @@
       <c r="AY16" s="60"/>
       <c r="AZ16" s="60"/>
       <c r="BA16" s="60"/>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB16" s="60"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
@@ -5925,9 +6164,18 @@
       <c r="P17" s="111"/>
       <c r="Q17" s="111"/>
       <c r="R17" s="46"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="AE17" s="60"/>
+      <c r="T17" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="50">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="V17" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="AF17" s="60"/>
       <c r="AG17" s="60"/>
       <c r="AH17" s="60"/>
@@ -5950,10 +6198,11 @@
       <c r="AY17" s="60"/>
       <c r="AZ17" s="60"/>
       <c r="BA17" s="60"/>
-    </row>
-    <row r="18" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BB17" s="60"/>
+    </row>
+    <row r="18" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="74" t="s">
@@ -5974,9 +6223,18 @@
       <c r="P18" s="111"/>
       <c r="Q18" s="111"/>
       <c r="R18" s="46"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="AE18" s="60"/>
+      <c r="T18" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AF18" s="60"/>
       <c r="AG18" s="60"/>
       <c r="AH18" s="60"/>
@@ -5999,8 +6257,9 @@
       <c r="AY18" s="60"/>
       <c r="AZ18" s="60"/>
       <c r="BA18" s="60"/>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB18" s="60"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="75">
         <v>16</v>
       </c>
@@ -6024,9 +6283,18 @@
       <c r="P19" s="111"/>
       <c r="Q19" s="111"/>
       <c r="R19" s="46"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="AE19" s="60"/>
+      <c r="T19" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="50">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="V19" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="AF19" s="60"/>
       <c r="AG19" s="60"/>
       <c r="AH19" s="60"/>
@@ -6049,10 +6317,11 @@
       <c r="AY19" s="60"/>
       <c r="AZ19" s="60"/>
       <c r="BA19" s="60"/>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB19" s="60"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B20" s="74" t="s">
@@ -6075,9 +6344,18 @@
       <c r="P20" s="111"/>
       <c r="Q20" s="111"/>
       <c r="R20" s="46"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="AE20" s="60"/>
+      <c r="T20" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="50">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="V20" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="AF20" s="60"/>
       <c r="AG20" s="60"/>
       <c r="AH20" s="60"/>
@@ -6100,10 +6378,11 @@
       <c r="AY20" s="60"/>
       <c r="AZ20" s="60"/>
       <c r="BA20" s="60"/>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB20" s="60"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B21" s="74" t="s">
@@ -6126,9 +6405,18 @@
       <c r="P21" s="111"/>
       <c r="Q21" s="111"/>
       <c r="R21" s="46"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="AE21" s="60"/>
+      <c r="T21" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="50">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="V21" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="AF21" s="60"/>
       <c r="AG21" s="60"/>
       <c r="AH21" s="60"/>
@@ -6151,17 +6439,18 @@
       <c r="AY21" s="60"/>
       <c r="AZ21" s="60"/>
       <c r="BA21" s="60"/>
-    </row>
-    <row r="22" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB21" s="60"/>
+    </row>
+    <row r="22" spans="1:54" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B22" s="74" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -6179,9 +6468,18 @@
       <c r="Q22" s="111"/>
       <c r="R22" s="46"/>
       <c r="S22" s="57"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="57"/>
+      <c r="T22" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="50">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="V22" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
       <c r="W22" s="57"/>
       <c r="X22" s="57"/>
       <c r="Y22" s="57"/>
@@ -6190,7 +6488,7 @@
       <c r="AB22" s="57"/>
       <c r="AC22" s="57"/>
       <c r="AD22" s="57"/>
-      <c r="AE22" s="60"/>
+      <c r="AE22" s="57"/>
       <c r="AF22" s="60"/>
       <c r="AG22" s="60"/>
       <c r="AH22" s="60"/>
@@ -6213,17 +6511,18 @@
       <c r="AY22" s="60"/>
       <c r="AZ22" s="60"/>
       <c r="BA22" s="60"/>
-    </row>
-    <row r="23" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB22" s="60"/>
+    </row>
+    <row r="23" spans="1:54" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B23" s="74" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="47">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -6241,9 +6540,18 @@
       <c r="Q23" s="111"/>
       <c r="R23" s="46"/>
       <c r="S23" s="57"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="57"/>
+      <c r="T23" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="50">
+        <f t="shared" si="4"/>
+        <v>1152</v>
+      </c>
+      <c r="V23" s="50">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
       <c r="W23" s="57"/>
       <c r="X23" s="57"/>
       <c r="Y23" s="57"/>
@@ -6252,7 +6560,7 @@
       <c r="AB23" s="57"/>
       <c r="AC23" s="57"/>
       <c r="AD23" s="57"/>
-      <c r="AE23" s="60"/>
+      <c r="AE23" s="57"/>
       <c r="AF23" s="60"/>
       <c r="AG23" s="60"/>
       <c r="AH23" s="60"/>
@@ -6275,17 +6583,19 @@
       <c r="AY23" s="60"/>
       <c r="AZ23" s="60"/>
       <c r="BA23" s="60"/>
-    </row>
-    <row r="24" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB23" s="60"/>
+    </row>
+    <row r="24" spans="1:54" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="47">
-        <v>3</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -6303,9 +6613,18 @@
       <c r="Q24" s="111"/>
       <c r="R24" s="46"/>
       <c r="S24" s="57"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="57"/>
+      <c r="T24" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="50">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="V24" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
       <c r="W24" s="57"/>
       <c r="X24" s="57"/>
       <c r="Y24" s="57"/>
@@ -6314,7 +6633,7 @@
       <c r="AB24" s="57"/>
       <c r="AC24" s="57"/>
       <c r="AD24" s="57"/>
-      <c r="AE24" s="60"/>
+      <c r="AE24" s="57"/>
       <c r="AF24" s="60"/>
       <c r="AG24" s="60"/>
       <c r="AH24" s="60"/>
@@ -6337,10 +6656,11 @@
       <c r="AY24" s="60"/>
       <c r="AZ24" s="60"/>
       <c r="BA24" s="60"/>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB24" s="60"/>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B25" s="74" t="s">
@@ -6363,9 +6683,18 @@
       <c r="P25" s="111"/>
       <c r="Q25" s="111"/>
       <c r="R25" s="46"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="AE25" s="60"/>
+      <c r="T25" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="50">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="V25" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
       <c r="AF25" s="60"/>
       <c r="AG25" s="60"/>
       <c r="AH25" s="60"/>
@@ -6388,51 +6717,68 @@
       <c r="AY25" s="60"/>
       <c r="AZ25" s="60"/>
       <c r="BA25" s="60"/>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB25" s="60"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B26" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="47">
-        <f>63+48</f>
-        <v>111</v>
+        <f>63+25</f>
+        <v>88</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="H26" s="47">
+        <v>22</v>
+      </c>
+      <c r="I26" s="47">
+        <v>1</v>
+      </c>
       <c r="J26" s="111"/>
       <c r="K26" s="46"/>
       <c r="M26" s="52"/>
       <c r="N26" s="121"/>
-      <c r="O26" s="47"/>
+      <c r="O26" s="47">
+        <v>2</v>
+      </c>
       <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
+      <c r="Q26" s="111">
+        <v>2</v>
+      </c>
       <c r="R26" s="46"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="AX26" s="62" t="e">
-        <f>#REF!-AX25</f>
+      <c r="T26" s="91">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="U26" s="50">
+        <f t="shared" si="4"/>
+        <v>2231</v>
+      </c>
+      <c r="V26" s="50">
+        <f t="shared" si="5"/>
+        <v>92.958333333333329</v>
+      </c>
+      <c r="AY26" s="62" t="e">
+        <f>#REF!-AY25</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B27" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="47">
-        <v>2</v>
-      </c>
+      <c r="C27" s="47"/>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
@@ -6449,9 +6795,18 @@
       <c r="Q27" s="111"/>
       <c r="R27" s="46"/>
       <c r="S27" s="57"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="57"/>
+      <c r="T27" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="W27" s="57"/>
       <c r="X27" s="57"/>
       <c r="Y27" s="57"/>
@@ -6460,18 +6815,18 @@
       <c r="AB27" s="57"/>
       <c r="AC27" s="57"/>
       <c r="AD27" s="57"/>
-    </row>
-    <row r="28" spans="1:53" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="57"/>
+    </row>
+    <row r="28" spans="1:54" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B28" s="74" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="47">
-        <f>63+4</f>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="47"/>
@@ -6484,14 +6839,27 @@
       <c r="L28" s="57"/>
       <c r="M28" s="52"/>
       <c r="N28" s="121"/>
-      <c r="O28" s="47"/>
+      <c r="O28" s="47">
+        <v>2</v>
+      </c>
       <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
+      <c r="Q28" s="111">
+        <v>5</v>
+      </c>
       <c r="R28" s="46"/>
       <c r="S28" s="57"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="57"/>
+      <c r="T28" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="50">
+        <f t="shared" si="4"/>
+        <v>1512</v>
+      </c>
+      <c r="V28" s="50">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
       <c r="W28" s="57"/>
       <c r="X28" s="57"/>
       <c r="Y28" s="57"/>
@@ -6500,10 +6868,11 @@
       <c r="AB28" s="57"/>
       <c r="AC28" s="57"/>
       <c r="AD28" s="57"/>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AE28" s="57"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -6524,20 +6893,29 @@
       <c r="P29" s="111"/>
       <c r="Q29" s="111"/>
       <c r="R29" s="46"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T29" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B30" s="74" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="47">
-        <f>63+13</f>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47"/>
@@ -6549,24 +6927,36 @@
       <c r="K30" s="46"/>
       <c r="M30" s="52"/>
       <c r="N30" s="121"/>
-      <c r="O30" s="47"/>
+      <c r="O30" s="47">
+        <v>1</v>
+      </c>
       <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
+      <c r="Q30" s="111">
+        <v>1</v>
+      </c>
       <c r="R30" s="46"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-    </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T30" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="50">
+        <f t="shared" si="4"/>
+        <v>1536</v>
+      </c>
+      <c r="V30" s="50">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B31" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="47">
-        <v>2</v>
-      </c>
+      <c r="C31" s="47"/>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -6581,20 +6971,28 @@
       <c r="P31" s="111"/>
       <c r="Q31" s="111"/>
       <c r="R31" s="46"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-    </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="T31" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B32" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="47">
-        <v>3</v>
-      </c>
+      <c r="C32" s="47"/>
       <c r="D32" s="47"/>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -6609,12 +7007,22 @@
       <c r="P32" s="111"/>
       <c r="Q32" s="111"/>
       <c r="R32" s="46"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T32" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B33" s="74" t="s">
@@ -6635,41 +7043,69 @@
       <c r="P33" s="111"/>
       <c r="Q33" s="111"/>
       <c r="R33" s="46"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T33" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B34" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="47">
-        <f>144+52</f>
-        <v>196</v>
+        <f>72+21+15</f>
+        <v>108</v>
       </c>
       <c r="D34" s="47"/>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="H34" s="47">
+        <v>16</v>
+      </c>
       <c r="I34" s="47"/>
       <c r="J34" s="111"/>
-      <c r="K34" s="46"/>
+      <c r="K34" s="46">
+        <v>1</v>
+      </c>
       <c r="M34" s="52"/>
       <c r="N34" s="121"/>
-      <c r="O34" s="47"/>
+      <c r="O34" s="47">
+        <v>3</v>
+      </c>
       <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
+      <c r="Q34" s="111">
+        <v>3</v>
+      </c>
       <c r="R34" s="46"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-    </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="91">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="U34" s="50">
+        <f t="shared" si="4"/>
+        <v>2753</v>
+      </c>
+      <c r="V34" s="50">
+        <f t="shared" si="5"/>
+        <v>114.70833333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B35" s="74" t="s">
@@ -6690,12 +7126,22 @@
       <c r="P35" s="111"/>
       <c r="Q35" s="111"/>
       <c r="R35" s="46"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T35" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B36" s="74" t="s">
@@ -6716,50 +7162,82 @@
       <c r="P36" s="111"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="46"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-    </row>
-    <row r="37" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T36" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B37" s="94" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="95">
-        <f>35+2376+3024+40</f>
-        <v>5475</v>
+        <f>2376+2160</f>
+        <v>4536</v>
       </c>
       <c r="D37" s="95"/>
       <c r="E37" s="95"/>
       <c r="F37" s="95"/>
       <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
+      <c r="H37" s="95">
+        <v>2</v>
+      </c>
       <c r="I37" s="95"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="96"/>
+      <c r="J37" s="110">
+        <v>4</v>
+      </c>
+      <c r="K37" s="96">
+        <v>2</v>
+      </c>
       <c r="L37" s="102"/>
       <c r="M37" s="103"/>
       <c r="N37" s="120"/>
-      <c r="O37" s="97"/>
+      <c r="O37" s="97">
+        <v>68</v>
+      </c>
       <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
+      <c r="Q37" s="113">
+        <v>56</v>
+      </c>
       <c r="R37" s="98"/>
       <c r="S37" s="102"/>
-      <c r="T37" s="104"/>
-      <c r="U37" s="104"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T37" s="104">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U37" s="104">
+        <f>C37*6+M37*6+O37*6+Q37*6+T37</f>
+        <v>27968</v>
+      </c>
+      <c r="V37" s="104">
+        <f>U37/6</f>
+        <v>4661.333333333333</v>
+      </c>
+      <c r="W37" s="137"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B38" s="73" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="47">
-        <v>11</v>
+        <f>3+1</f>
+        <v>4</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
@@ -6775,51 +7253,79 @@
       <c r="P38" s="111"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="46"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-    </row>
-    <row r="39" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T38" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="50">
+        <f>C38*24+M38*24+O38*24+Q38*24+T38</f>
+        <v>96</v>
+      </c>
+      <c r="V38" s="50">
+        <f>U38/24</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B39" s="94" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="95">
-        <f>756+66</f>
-        <v>822</v>
+        <f>756+5</f>
+        <v>761</v>
       </c>
       <c r="D39" s="95"/>
       <c r="E39" s="95"/>
       <c r="F39" s="95"/>
       <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
+      <c r="H39" s="95">
+        <v>9</v>
+      </c>
       <c r="I39" s="95"/>
       <c r="J39" s="110"/>
-      <c r="K39" s="96"/>
+      <c r="K39" s="96">
+        <v>15</v>
+      </c>
       <c r="L39" s="102"/>
       <c r="M39" s="103"/>
       <c r="N39" s="120"/>
-      <c r="O39" s="97"/>
+      <c r="O39" s="97">
+        <v>1</v>
+      </c>
       <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
+      <c r="Q39" s="113">
+        <v>2</v>
+      </c>
       <c r="R39" s="98"/>
       <c r="S39" s="102"/>
-      <c r="T39" s="104"/>
-      <c r="U39" s="104"/>
-    </row>
-    <row r="40" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T39" s="104">
+        <f t="shared" ref="T39" si="6">H39+I39+J39+K39+N39+P39+R39</f>
+        <v>24</v>
+      </c>
+      <c r="U39" s="104">
+        <f>C39*24+M39*24+O39*24+Q39*24+T39</f>
+        <v>18360</v>
+      </c>
+      <c r="V39" s="104">
+        <f>U39/24</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B40" s="99" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="100">
-        <f>1824+76</f>
-        <v>1900</v>
+        <f>1632+38</f>
+        <v>1670</v>
       </c>
       <c r="D40" s="100"/>
       <c r="E40" s="100"/>
@@ -6832,17 +7338,31 @@
       <c r="L40" s="105"/>
       <c r="M40" s="106"/>
       <c r="N40" s="122"/>
-      <c r="O40" s="100"/>
+      <c r="O40" s="100">
+        <v>11</v>
+      </c>
       <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
+      <c r="Q40" s="112">
+        <v>15</v>
+      </c>
       <c r="R40" s="101"/>
       <c r="S40" s="105"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="107"/>
-    </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T40" s="107">
+        <f t="shared" ref="T40" si="7">H40+I40+J40+K40+N40+P40+R40</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="107">
+        <f>C40*12+M40*12+O40*12+Q40*12+T40</f>
+        <v>20352</v>
+      </c>
+      <c r="V40" s="107">
+        <f>U40/12</f>
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -6865,41 +7385,65 @@
       <c r="R41" s="46"/>
       <c r="T41" s="50"/>
       <c r="U41" s="50"/>
-    </row>
-    <row r="42" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V41" s="50"/>
+    </row>
+    <row r="42" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B42" s="94" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="97">
-        <f>6048+6048+8424+1296+44+7128</f>
-        <v>28988</v>
+        <f>6048+6048+2700+3564+7128</f>
+        <v>25488</v>
       </c>
       <c r="D42" s="97"/>
       <c r="E42" s="97"/>
       <c r="F42" s="97"/>
       <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="98"/>
+      <c r="H42" s="97">
+        <v>2</v>
+      </c>
+      <c r="I42" s="97">
+        <v>6</v>
+      </c>
+      <c r="J42" s="113">
+        <v>48</v>
+      </c>
+      <c r="K42" s="98">
+        <f>454</f>
+        <v>454</v>
+      </c>
       <c r="L42" s="102"/>
       <c r="M42" s="103"/>
       <c r="N42" s="120"/>
-      <c r="O42" s="97"/>
+      <c r="O42" s="97">
+        <v>285</v>
+      </c>
       <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
+      <c r="Q42" s="113">
+        <v>383</v>
+      </c>
       <c r="R42" s="98"/>
       <c r="S42" s="102"/>
-      <c r="T42" s="104"/>
-      <c r="U42" s="104"/>
-    </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T42" s="104">
+        <f t="shared" ref="T42" si="8">H42+I42+J42+K42+N42+P42+R42</f>
+        <v>510</v>
+      </c>
+      <c r="U42" s="104">
+        <f>C42*6+M42*6+O42*6+Q42*6+T42</f>
+        <v>157446</v>
+      </c>
+      <c r="V42" s="104">
+        <f>U42/6</f>
+        <v>26241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B43" s="73" t="s">
@@ -6922,10 +7466,11 @@
       <c r="R43" s="46"/>
       <c r="T43" s="50"/>
       <c r="U43" s="50"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43" s="50"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B44" s="74" t="s">
@@ -6946,12 +7491,22 @@
       <c r="P44" s="111"/>
       <c r="Q44" s="111"/>
       <c r="R44" s="46"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T44" s="50">
+        <f t="shared" ref="T44" si="9">H44+I44+J44+K44+N44+P44+R44</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="50">
+        <f>C44*24+M44*24+O44*24+Q44*24+T44</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="50">
+        <f>U44/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B45" s="74" t="s">
@@ -6972,20 +7527,28 @@
       <c r="P45" s="111"/>
       <c r="Q45" s="111"/>
       <c r="R45" s="46"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T45" s="50">
+        <f t="shared" ref="T45:T48" si="10">H45+I45+J45+K45+N45+P45+R45</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="50">
+        <f t="shared" ref="U45:U47" si="11">C45*24+M45*24+O45*24+Q45*24+T45</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="50">
+        <f t="shared" ref="V45:V53" si="12">U45/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="47">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C46" s="47"/>
       <c r="D46" s="47"/>
       <c r="E46" s="47"/>
       <c r="F46" s="47"/>
@@ -7000,20 +7563,28 @@
       <c r="P46" s="111"/>
       <c r="Q46" s="111"/>
       <c r="R46" s="46"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T46" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="47">
-        <v>2</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C47" s="47"/>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -7028,41 +7599,73 @@
       <c r="P47" s="111"/>
       <c r="Q47" s="111"/>
       <c r="R47" s="46"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T47" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B48" s="74" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="47">
-        <f>47+55+2268</f>
-        <v>2370</v>
+        <f>24+44+2268</f>
+        <v>2336</v>
       </c>
       <c r="D48" s="47"/>
       <c r="E48" s="47"/>
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
+      <c r="H48" s="47">
+        <v>3</v>
+      </c>
       <c r="I48" s="47"/>
       <c r="J48" s="111"/>
-      <c r="K48" s="46"/>
-      <c r="M48" s="52"/>
+      <c r="K48" s="46">
+        <v>6</v>
+      </c>
+      <c r="M48" s="52">
+        <v>10</v>
+      </c>
       <c r="N48" s="121"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="111"/>
-      <c r="Q48" s="111"/>
+      <c r="O48" s="47">
+        <v>8</v>
+      </c>
+      <c r="P48" s="111">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="111">
+        <v>10</v>
+      </c>
       <c r="R48" s="46"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="50"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T48" s="50">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="U48" s="50">
+        <f>C48*6+M48*6+O48*6+Q48*6+T48</f>
+        <v>14195</v>
+      </c>
+      <c r="V48" s="50">
+        <f>U48/6</f>
+        <v>2365.8333333333335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B49" s="74" t="s">
@@ -7083,20 +7686,28 @@
       <c r="P49" s="111"/>
       <c r="Q49" s="111"/>
       <c r="R49" s="46"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T49" s="50">
+        <f t="shared" ref="T49:T50" si="13">H49+I49+J49+K49+N49+P49+R49</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="50">
+        <f t="shared" ref="U49:U50" si="14">C49*24+M49*24+O49*24+Q49*24+T49</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B50" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="47">
-        <v>1</v>
-      </c>
+      <c r="C50" s="47"/>
       <c r="D50" s="47"/>
       <c r="E50" s="47"/>
       <c r="F50" s="47"/>
@@ -7111,12 +7722,22 @@
       <c r="P50" s="111"/>
       <c r="Q50" s="111"/>
       <c r="R50" s="46"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T50" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="50">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B51" s="74" t="s">
@@ -7137,12 +7758,22 @@
       <c r="P51" s="111"/>
       <c r="Q51" s="111"/>
       <c r="R51" s="46"/>
-      <c r="T51" s="50"/>
-      <c r="U51" s="50"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T51" s="50">
+        <f t="shared" ref="T51:T52" si="15">H51+I51+J51+K51+N51+P51+R51</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="50">
+        <f t="shared" ref="U51" si="16">C51*24+M51*24+O51*24+Q51*24+T51</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B52" s="74" t="s">
@@ -7165,12 +7796,22 @@
       <c r="P52" s="111"/>
       <c r="Q52" s="111"/>
       <c r="R52" s="46"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T52" s="50">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="50">
+        <f>C52*6+M52*6+O52*6+Q52*6+T52</f>
+        <v>204</v>
+      </c>
+      <c r="V52" s="50">
+        <f>U52/6</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B53" s="74" t="s">
@@ -7191,12 +7832,22 @@
       <c r="P53" s="111"/>
       <c r="Q53" s="111"/>
       <c r="R53" s="46"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T53" s="50">
+        <f t="shared" ref="T53" si="17">H53+I53+J53+K53+N53+P53+R53</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="50">
+        <f t="shared" ref="U53" si="18">C53*24+M53*24+O53*24+Q53*24+T53</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B54" s="74"/>
@@ -7217,10 +7868,11 @@
       <c r="R54" s="46"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54" s="50"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B55" s="74"/>
@@ -7241,10 +7893,11 @@
       <c r="R55" s="46"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55" s="50"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B56" s="74"/>
@@ -7265,77 +7918,82 @@
       <c r="R56" s="46"/>
       <c r="T56" s="50"/>
       <c r="U56" s="50"/>
-    </row>
-    <row r="57" spans="1:21" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V56" s="50"/>
+    </row>
+    <row r="57" spans="1:22" s="63" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="77" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="49">
         <f>SUM(C7:C56)</f>
-        <v>50229</v>
+        <v>38967</v>
       </c>
       <c r="D57" s="49"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49">
-        <f t="shared" ref="F57:K57" si="1">SUM(F7:F56)</f>
+        <f t="shared" ref="D57:K57" si="19">SUM(F7:F56)</f>
         <v>0</v>
       </c>
       <c r="G57" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H57" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
+        <v>93</v>
+      </c>
+      <c r="I57" s="54">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="J57" s="54">
+        <f t="shared" si="19"/>
+        <v>52</v>
+      </c>
+      <c r="K57" s="54">
+        <f t="shared" si="19"/>
+        <v>486</v>
+      </c>
+      <c r="M57" s="53">
+        <f t="shared" ref="M57:R57" si="20">SUM(M7:M56)</f>
+        <v>13</v>
+      </c>
+      <c r="N57" s="53">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I57" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="53">
-        <f t="shared" ref="M57:R57" si="2">SUM(M7:M56)</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="O57" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>396</v>
       </c>
       <c r="P57" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
       <c r="Q57" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>498</v>
       </c>
       <c r="R57" s="53">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="S57" s="57"/>
       <c r="T57" s="51">
         <f>SUM(T7:T56)</f>
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="U57" s="51">
         <f>SUM(U7:U56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>339434</v>
+      </c>
+      <c r="V57" s="51">
+        <f>SUM(V7:V56)</f>
+        <v>39967.708333333336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="78" t="s">
         <v>39</v>
       </c>
@@ -7350,16 +8008,18 @@
       <c r="I59" s="131"/>
       <c r="J59" s="131"/>
       <c r="K59" s="132"/>
-      <c r="T59" s="72" t="s">
+      <c r="U59" s="72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B60" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
+      <c r="D60" s="67">
+        <v>6</v>
+      </c>
       <c r="E60" s="67"/>
       <c r="F60" s="67"/>
       <c r="G60" s="67"/>
@@ -7367,9 +8027,9 @@
       <c r="I60" s="67"/>
       <c r="J60" s="114"/>
       <c r="K60" s="68"/>
-      <c r="T60" s="55"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U60" s="55"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B61" s="80" t="s">
         <v>55</v>
       </c>
@@ -7382,9 +8042,9 @@
       <c r="I61" s="48"/>
       <c r="J61" s="109"/>
       <c r="K61" s="69"/>
-      <c r="T61" s="50"/>
-    </row>
-    <row r="62" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U61" s="50"/>
+    </row>
+    <row r="62" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="81" t="s">
         <v>54</v>
       </c>
@@ -7397,10 +8057,10 @@
       <c r="I62" s="70"/>
       <c r="J62" s="115"/>
       <c r="K62" s="71"/>
-      <c r="T62" s="56"/>
-    </row>
-    <row r="63" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U62" s="56"/>
+    </row>
+    <row r="63" spans="1:22" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B64" s="79" t="s">
         <v>56</v>
       </c>
@@ -7413,9 +8073,9 @@
       <c r="I64" s="67"/>
       <c r="J64" s="114"/>
       <c r="K64" s="68"/>
-      <c r="T64" s="55"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="55"/>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="80" t="s">
         <v>55</v>
       </c>
@@ -7428,9 +8088,9 @@
       <c r="I65" s="48"/>
       <c r="J65" s="109"/>
       <c r="K65" s="69"/>
-      <c r="T65" s="50"/>
-    </row>
-    <row r="66" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U65" s="50"/>
+    </row>
+    <row r="66" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="81" t="s">
         <v>54</v>
       </c>
@@ -7443,10 +8103,10 @@
       <c r="I66" s="70"/>
       <c r="J66" s="115"/>
       <c r="K66" s="71"/>
-      <c r="T66" s="56"/>
-    </row>
-    <row r="67" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="56"/>
+    </row>
+    <row r="67" spans="2:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" s="79" t="s">
         <v>41</v>
       </c>
@@ -7459,9 +8119,9 @@
       <c r="I68" s="67"/>
       <c r="J68" s="114"/>
       <c r="K68" s="68"/>
-      <c r="T68" s="55"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="55"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="80" t="s">
         <v>55</v>
       </c>
@@ -7474,9 +8134,9 @@
       <c r="I69" s="48"/>
       <c r="J69" s="109"/>
       <c r="K69" s="69"/>
-      <c r="T69" s="50"/>
-    </row>
-    <row r="70" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U69" s="50"/>
+    </row>
+    <row r="70" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="81" t="s">
         <v>54</v>
       </c>
@@ -7489,10 +8149,10 @@
       <c r="I70" s="70"/>
       <c r="J70" s="115"/>
       <c r="K70" s="71"/>
-      <c r="T70" s="56"/>
-    </row>
-    <row r="71" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="56"/>
+    </row>
+    <row r="71" spans="2:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="79" t="s">
         <v>57</v>
       </c>
@@ -7505,9 +8165,9 @@
       <c r="I72" s="67"/>
       <c r="J72" s="114"/>
       <c r="K72" s="68"/>
-      <c r="T72" s="55"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="55"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" s="80" t="s">
         <v>55</v>
       </c>
@@ -7520,9 +8180,9 @@
       <c r="I73" s="48"/>
       <c r="J73" s="109"/>
       <c r="K73" s="69"/>
-      <c r="T73" s="50"/>
-    </row>
-    <row r="74" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U73" s="50"/>
+    </row>
+    <row r="74" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="81" t="s">
         <v>54</v>
       </c>
@@ -7535,10 +8195,10 @@
       <c r="I74" s="70"/>
       <c r="J74" s="115"/>
       <c r="K74" s="71"/>
-      <c r="T74" s="56"/>
-    </row>
-    <row r="75" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="56"/>
+    </row>
+    <row r="75" spans="2:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" s="79" t="s">
         <v>58</v>
       </c>
@@ -7551,9 +8211,9 @@
       <c r="I76" s="67"/>
       <c r="J76" s="114"/>
       <c r="K76" s="68"/>
-      <c r="T76" s="55"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="55"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="80" t="s">
         <v>55</v>
       </c>
@@ -7566,9 +8226,9 @@
       <c r="I77" s="48"/>
       <c r="J77" s="109"/>
       <c r="K77" s="69"/>
-      <c r="T77" s="50"/>
-    </row>
-    <row r="78" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U77" s="50"/>
+    </row>
+    <row r="78" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="81" t="s">
         <v>54</v>
       </c>
@@ -7581,10 +8241,10 @@
       <c r="I78" s="70"/>
       <c r="J78" s="115"/>
       <c r="K78" s="71"/>
-      <c r="T78" s="56"/>
-    </row>
-    <row r="79" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U78" s="56"/>
+    </row>
+    <row r="79" spans="2:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="78" t="s">
         <v>59</v>
       </c>
@@ -7597,19 +8257,23 @@
       <c r="I80" s="65"/>
       <c r="J80" s="116"/>
       <c r="K80" s="66"/>
-      <c r="T80" s="64"/>
+      <c r="U80" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I1:T1"/>
+  <mergeCells count="7">
+    <mergeCell ref="I1:U1"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="C59:K59"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T4:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="14" scale="70" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="23" max="80" man="1"/>
+    <brk id="24" max="80" man="1"/>
   </colBreaks>
 </worksheet>
 </file>